--- a/biology/Zoologie/Identification_des_oiseaux/Identification_des_oiseaux.xlsx
+++ b/biology/Zoologie/Identification_des_oiseaux/Identification_des_oiseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'identification des oiseaux fait partie des caractéristiques physiques, écologiques et comportementales qui sont les clés de la détermination des espèces.
 La distinction entre espèces se fait notamment :
@@ -524,6 +536,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -549,17 +563,88 @@
           <t>Biométrie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les mesures biométriques de l'oiseau (en) fournissent des données sur les populations d'oiseaux. Elles consistent essentiellement à mesurer la longueur du corps, de l'aile pliée, de la queue  et de la tête, la longueur, l'épaisseur et la hauteur du bec, la longueur et l'épaisseur du tarse, la masse.
-Codage des chants et des cris des oiseaux
-Un oiseau peut s'identifier au niveau acoustique par son chant ou ses cris, lesquels sont à la frontière de la musique et du langage parlé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mesures biométriques de l'oiseau (en) fournissent des données sur les populations d'oiseaux. Elles consistent essentiellement à mesurer la longueur du corps, de l'aile pliée, de la queue  et de la tête, la longueur, l'épaisseur et la hauteur du bec, la longueur et l'épaisseur du tarse, la masse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Identification_des_oiseaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Identification_des_oiseaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biométrie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Codage des chants et des cris des oiseaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un oiseau peut s'identifier au niveau acoustique par son chant ou ses cris, lesquels sont à la frontière de la musique et du langage parlé.
 Le chant ou le cri d'un oiseau est en effet une succession temporelle de sons, entrecoupée de silences et découpée en phrases répétitives. La phrase (ou strophe) est, par définition, le plus grand motif répétitif terminé par un silence (exemple : phrase "rou.rouhh rou" correspondant au chant de la tourterelle turque).
 En musique, le son (musical) est caractérisé par une hauteur, une intensité, une durée et un timbre. Quant au silence, il est caractérisé par une durée.
 Concernant les oiseaux, la hauteur des sons (fréquence de leur fondamentale) n'est pas un trait saillant de la phrase alors que le timbre des sons (fréquence des harmoniques de rang supérieur) l'est. Tout son prononcé n'est pas en effet une simple note de musique ou groupe de notes, mais une syllabe comme dans le langage parlé. Par exemple, le cri de la chouette hulotte ("ouh.iiik") comporte deux syllabes "ouh" et "iiik", composées elles-mêmes des phonèmes "ou", "i" et "k".
-Ainsi, une phrase peut se décomposer en mots et chaque mot en sons, un son étant une simple syllabe. Une grammaire formelle du codage des chants et des cris des oiseaux est alors possible, en combinant musique et langage parlé[1].
-Aspect extérieur d'un oiseau (formalisation)
-Pour un oiseau adulte d'une espèce donnée, l'aspect extérieur peut se caractériser simplement comme suit.
+Ainsi, une phrase peut se décomposer en mots et chaque mot en sons, un son étant une simple syllabe. Une grammaire formelle du codage des chants et des cris des oiseaux est alors possible, en combinant musique et langage parlé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Identification_des_oiseaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Identification_des_oiseaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biométrie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aspect extérieur d'un oiseau (formalisation)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour un oiseau adulte d'une espèce donnée, l'aspect extérieur peut se caractériser simplement comme suit.
 Polymorphisme sexuel : mâle, femelle, indifférent
 Polymorphisme saisonnier : été (plumage nuptial), hiver (plumage internuptial), indifférent
 Polymorphisme génétique : morphe pâle/sombre, morphe roux/gris, indifférent
@@ -589,9 +674,44 @@
 Pattes : forme, longueur, couleur, particularités
 Comportement : en vol, perché, au sol, sur l'eau, la nuit, particularités
 Photo : une ou plusieurs photos représentatives des caractéristiques de l'espèce
-Régis Petit a classé selon ces critères les 300 oiseaux d'Europe les plus communs et en ne gardant que leurs traits saillants permettant de les inter-comparer. Cette base de données est accessible gratuitement en ligne sous forme d'une feuille de calcul au format XLS[1].
-Habitat des oiseaux (formalisation)
-Pour l'ensemble des oiseaux d'Europe, et plus particulièrement de France, l'habitat principal de nidification peut se standardiser simplement en six domaines[2] :
+Régis Petit a classé selon ces critères les 300 oiseaux d'Europe les plus communs et en ne gardant que leurs traits saillants permettant de les inter-comparer. Cette base de données est accessible gratuitement en ligne sous forme d'une feuille de calcul au format XLS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Identification_des_oiseaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Identification_des_oiseaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biométrie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat des oiseaux (formalisation)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour l'ensemble des oiseaux d'Europe, et plus particulièrement de France, l'habitat principal de nidification peut se standardiser simplement en six domaines :
 Agricole ou rural (cultures, plaine, montagne) ;
 Eau douce (étang, lac, marais non salé, rivière) ;
 Forestier (forêt) ;
@@ -601,31 +721,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Identification_des_oiseaux</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Identification_des_oiseaux</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Glossaire ornithologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Calotte : partie supérieure de la tête de l'oiseau appelé également vertex.
 Moustache : trait ou tache oblique partant de la base de la mandibule inférieure vers le bas.
